--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -667,8 +667,11 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -699,13 +702,13 @@
         <v>44104</v>
       </c>
       <c r="H7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J7" s="2">
         <v>43830</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -959,8 +962,8 @@
       <c r="I17" s="3">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -988,8 +991,8 @@
       <c r="I18" s="3">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1030,8 +1033,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1117,8 +1120,8 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1204,8 +1207,8 @@
       <c r="I26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1233,8 +1236,8 @@
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1378,8 +1381,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1407,8 +1410,8 @@
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1465,8 +1468,8 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1494,13 +1497,13 @@
         <v>44104</v>
       </c>
       <c r="H38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J38" s="2">
         <v>43830</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -2579,13 +2582,13 @@
         <v>44104</v>
       </c>
       <c r="H80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J80" s="2">
         <v>43830</v>
-      </c>
-      <c r="I80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2613,8 +2616,8 @@
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2829,8 +2832,8 @@
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3107,17 +3110,17 @@
       <c r="F100" s="3">
         <v>115900</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3174,8 +3177,8 @@
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,109 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>27100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>16700</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -771,19 +784,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>23100</v>
       </c>
       <c r="E17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>4000</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>7900</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,48 +1075,56 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1068,95 +1141,119 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>3100</v>
       </c>
       <c r="E23" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>2400</v>
       </c>
       <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,84 +1771,102 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>19300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,54 +1876,66 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>49300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
-        <v>115000</v>
+        <v>4000</v>
       </c>
       <c r="F47" s="3">
         <v>115000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>115000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>115000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1737,66 +1946,84 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>538800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>511100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>37100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>633100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>601700</v>
+      </c>
+      <c r="F54" s="3">
         <v>115500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>115900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>116100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,20 +2225,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,13 +2256,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2009,43 +2276,49 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>36800</v>
       </c>
       <c r="E59" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2053,45 +2326,57 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>225300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>203900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2111,26 +2396,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>263800</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,28 +2726,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,28 +2866,34 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>337900</v>
+      </c>
+      <c r="F76" s="3">
         <v>114800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>115600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>115900</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3107,26 +3598,32 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>115900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-400</v>
+        <v>6000</v>
       </c>
       <c r="E102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,135 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F8" s="3">
         <v>27100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>30400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16700</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F9" s="3">
         <v>11400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -790,31 +804,37 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F10" s="3">
         <v>15700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>18300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11900</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +985,55 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F15" s="3">
         <v>5000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>4800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>4100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,31 +1044,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F17" s="3">
         <v>23100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>16700</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1024,46 +1078,58 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,66 +1143,74 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19400</v>
+        <v>8400</v>
       </c>
       <c r="E21" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="F21" s="3">
-        <v>800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1147,66 +1221,78 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1214,46 +1300,58 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,31 +1385,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1319,34 +1423,40 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1354,11 +1464,17 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,66 +1631,78 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1564,11 +1710,17 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,31 +1754,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1634,51 +1792,63 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1879,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F41" s="3">
         <v>14600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
-      </c>
       <c r="H41" s="3">
-        <v>700</v>
-      </c>
-      <c r="I41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,25 +1957,31 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F43" s="3">
         <v>18500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>19300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>14000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1803,17 +1989,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1821,16 +2013,16 @@
         <v>4500</v>
       </c>
       <c r="E44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>3800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1838,34 +2030,40 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>12800</v>
       </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>13200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1882,60 +2080,72 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F46" s="3">
         <v>50800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>49300</v>
       </c>
-      <c r="F46" s="3">
-        <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>900</v>
-      </c>
       <c r="H46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I46" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
-        <v>115000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>115000</v>
-      </c>
       <c r="H47" s="3">
-        <v>115000</v>
+        <v>2100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1952,25 +2162,31 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1978,34 +2194,40 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>538800</v>
+        <v>564400</v>
       </c>
       <c r="E49" s="3">
+        <v>571800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>539200</v>
+      </c>
+      <c r="G49" s="3">
         <v>511100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>501000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2013,17 +2235,23 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2326,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39100</v>
+        <v>56600</v>
       </c>
       <c r="E52" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>38700</v>
+      </c>
+      <c r="G52" s="3">
         <v>37100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
+        <v>32500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>683300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>684300</v>
+      </c>
+      <c r="F54" s="3">
         <v>633100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>601700</v>
       </c>
-      <c r="F54" s="3">
-        <v>115500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>115900</v>
-      </c>
       <c r="H54" s="3">
-        <v>116100</v>
-      </c>
-      <c r="I54" s="3">
+        <v>581000</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,25 +2487,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>4200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2262,69 +2524,81 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3">
+        <v>81600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F59" s="3">
         <v>36800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>28600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
       <c r="H59" s="3">
-        <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+        <v>31000</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2332,60 +2606,72 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F60" s="3">
         <v>41900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>33900</v>
       </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
-        <v>100</v>
-      </c>
-      <c r="I60" s="3">
+        <v>116900</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>269900</v>
+      </c>
+      <c r="F61" s="3">
         <v>225300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>203900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>244400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2402,25 +2688,31 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F62" s="3">
         <v>23300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>25000</v>
       </c>
-      <c r="F62" s="3">
-        <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>200</v>
-      </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>24900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>337900</v>
+      </c>
+      <c r="F66" s="3">
         <v>291600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>263800</v>
       </c>
-      <c r="F66" s="3">
-        <v>700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
-      </c>
       <c r="H66" s="3">
+        <v>387200</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
-        <v>200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>81600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,34 +3074,40 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F72" s="3">
         <v>700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>3900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-400</v>
-      </c>
       <c r="H72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,34 +3238,40 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>346400</v>
+      </c>
+      <c r="F76" s="3">
         <v>341400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>337900</v>
       </c>
-      <c r="F76" s="3">
-        <v>114800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>115600</v>
-      </c>
       <c r="H76" s="3">
-        <v>115900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
+        <v>112200</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,71 +3320,83 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3014,11 +3404,17 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,31 +3428,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,31 +3670,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15000</v>
+        <v>1800</v>
       </c>
       <c r="E89" s="3">
-        <v>2300</v>
+        <v>-1900</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>12700</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-2100</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>3800</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3274,11 +3708,17 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,19 +3732,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3327,8 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,31 +3851,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-12800</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-36700</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-31700</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-15600</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-112800</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-12800</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-21400</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3432,8 +3892,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,66 +4073,78 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>18200</v>
       </c>
       <c r="H100" s="3">
-        <v>115900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>113600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3657,39 +4155,51 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6000</v>
+        <v>-5200</v>
       </c>
       <c r="E102" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="F102" s="3">
-        <v>-600</v>
+        <v>1900</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="H102" s="3">
-        <v>500</v>
+        <v>4800</v>
       </c>
       <c r="I102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E8" s="3">
         <v>24300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -769,35 +773,38 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E9" s="3">
         <v>10000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,35 +817,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,31 +1023,31 @@
         <v>5400</v>
       </c>
       <c r="E15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F15" s="3">
         <v>5200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,35 +1072,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16700</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1084,52 +1111,58 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,76 +1178,80 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,40 +1264,43 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2300</v>
       </c>
       <c r="J22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>2300</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1268,35 +1308,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1306,43 +1349,46 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,35 +1440,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1470,11 +1525,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,76 +1704,82 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1716,11 +1789,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,35 +1836,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1798,57 +1877,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +1967,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,29 +2053,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E43" s="3">
         <v>25600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2088,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2004,29 +2097,32 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2036,8 +2132,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2045,29 +2141,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,38 +2185,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E46" s="3">
         <v>56200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>49300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,29 +2229,32 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4000</v>
       </c>
       <c r="G47" s="3">
         <v>4000</v>
       </c>
       <c r="H47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I47" s="3">
         <v>2100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,16 +2273,19 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2188,8 +2296,8 @@
       <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2200,8 +2308,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2209,29 +2317,32 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E49" s="3">
         <v>564400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>571800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>539200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>511100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>501000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2352,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,38 +2449,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E52" s="3">
         <v>56600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>48800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2537,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>686500</v>
+      </c>
+      <c r="E54" s="3">
         <v>683300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>684300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>633100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>601700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>581000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,29 +2619,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,13 +2661,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2544,24 +2678,24 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>81600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,37 +2705,40 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E59" s="3">
         <v>30900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2612,38 +2749,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E60" s="3">
         <v>36200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,29 +2793,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>279500</v>
+      </c>
+      <c r="E61" s="3">
         <v>278800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>269900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>225300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>203900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>244400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,29 +2837,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E62" s="3">
         <v>24900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3013,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>343900</v>
+      </c>
+      <c r="E66" s="3">
         <v>341000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>337900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>291600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>263800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>387200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>81600</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,37 +3251,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E72" s="3">
         <v>12300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,37 +3427,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E76" s="3">
         <v>342300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>346400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>341400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>337900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>112200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,81 +3515,87 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3410,11 +3605,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,26 +3638,26 @@
         <v>5400</v>
       </c>
       <c r="E83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,35 +3890,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3714,11 +3931,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3749,7 +3970,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,35 +4084,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-112800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,76 +4322,82 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>113600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4161,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,113 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E8" s="3">
         <v>33300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33600</v>
       </c>
-      <c r="G8" s="3">
-        <v>27100</v>
-      </c>
       <c r="H8" s="3">
-        <v>30400</v>
+        <v>25800</v>
       </c>
       <c r="I8" s="3">
-        <v>16700</v>
+        <v>46900</v>
       </c>
       <c r="J8" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K8" s="3">
         <v>25600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -776,38 +779,41 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>13900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11400</v>
       </c>
-      <c r="H9" s="3">
-        <v>12100</v>
-      </c>
       <c r="I9" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J9" s="3">
         <v>7700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,38 +826,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E10" s="3">
         <v>19400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20600</v>
       </c>
-      <c r="G10" s="3">
-        <v>15700</v>
-      </c>
       <c r="H10" s="3">
-        <v>18300</v>
+        <v>14400</v>
       </c>
       <c r="I10" s="3">
-        <v>9000</v>
+        <v>27100</v>
       </c>
       <c r="J10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K10" s="3">
         <v>16400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,22 +986,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -993,8 +1012,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1014,43 +1033,46 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E15" s="3">
         <v>5400</v>
       </c>
       <c r="F15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G15" s="3">
         <v>5200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5000</v>
       </c>
-      <c r="H15" s="3">
-        <v>4800</v>
-      </c>
       <c r="I15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J15" s="3">
         <v>4100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,38 +1098,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>26200</v>
       </c>
       <c r="E17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F17" s="3">
         <v>23000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23100</v>
       </c>
-      <c r="H17" s="3">
-        <v>22500</v>
-      </c>
       <c r="I17" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J17" s="3">
         <v>16400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16700</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1114,55 +1140,61 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>3700</v>
       </c>
       <c r="E18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
-        <v>4000</v>
-      </c>
       <c r="H18" s="3">
-        <v>7900</v>
+        <v>2700</v>
       </c>
       <c r="I18" s="3">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>8200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,82 +1211,86 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>900</v>
-      </c>
       <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>9100</v>
       </c>
       <c r="E21" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="G21" s="3">
-        <v>10600</v>
-      </c>
       <c r="H21" s="3">
-        <v>13600</v>
+        <v>9300</v>
       </c>
       <c r="I21" s="3">
-        <v>4900</v>
+        <v>18200</v>
       </c>
       <c r="J21" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K21" s="3">
         <v>13200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,43 +1303,46 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
-        <v>2700</v>
-      </c>
       <c r="I22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J22" s="3">
         <v>2800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2300</v>
       </c>
       <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>2300</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1311,38 +1350,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>7200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1352,46 +1394,49 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
-        <v>700</v>
-      </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,38 +1491,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-4100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1484,41 +1535,44 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-4400</v>
       </c>
       <c r="E27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7800</v>
       </c>
-      <c r="G27" s="3">
-        <v>2100</v>
-      </c>
       <c r="H27" s="3">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1400</v>
+        <v>2600</v>
       </c>
       <c r="J27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K27" s="3">
         <v>6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1528,11 +1582,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,82 +1773,88 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-900</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-4400</v>
       </c>
       <c r="E33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
-        <v>2100</v>
-      </c>
       <c r="H33" s="3">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1400</v>
+        <v>2600</v>
       </c>
       <c r="J33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K33" s="3">
         <v>6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1792,11 +1864,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,38 +1914,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-4400</v>
       </c>
       <c r="E35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
-        <v>2100</v>
-      </c>
       <c r="H35" s="3">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1400</v>
+        <v>2600</v>
       </c>
       <c r="J35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K35" s="3">
         <v>6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1880,60 +1958,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,41 +2053,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E41" s="3">
         <v>18800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,32 +2145,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E43" s="3">
         <v>26400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,8 +2183,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2100,32 +2192,35 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E44" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2230,8 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2144,32 +2239,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E45" s="3">
         <v>13900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,41 +2286,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E46" s="3">
         <v>65100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>56200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>49300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,32 +2333,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4000</v>
       </c>
       <c r="H47" s="3">
         <v>4000</v>
       </c>
       <c r="I47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2276,19 +2380,22 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2299,8 +2406,8 @@
       <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>300</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2311,8 +2418,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2320,32 +2427,35 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>587800</v>
+      </c>
+      <c r="E49" s="3">
         <v>559000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>564400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>571800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>539200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>511100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2355,8 +2465,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,41 +2568,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E52" s="3">
         <v>57900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>48800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>720300</v>
+      </c>
+      <c r="E54" s="3">
         <v>686500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>683300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>684300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>633100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>601700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>581000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,16 +2794,19 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2681,24 +2814,24 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>81600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,40 +2841,43 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E59" s="3">
         <v>34900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2752,41 +2888,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E60" s="3">
         <v>39000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>116900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,32 +2935,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>279500</v>
+        <v>292200</v>
       </c>
       <c r="E61" s="3">
-        <v>278800</v>
+        <v>278000</v>
       </c>
       <c r="F61" s="3">
+        <v>277400</v>
+      </c>
+      <c r="G61" s="3">
         <v>269900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>225300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>203900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>244400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2840,32 +2982,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24500</v>
+        <v>36200</v>
       </c>
       <c r="E62" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>23300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J62" s="3">
         <v>24900</v>
       </c>
-      <c r="F62" s="3">
-        <v>25900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>23300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>24900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>376700</v>
+      </c>
+      <c r="E66" s="3">
         <v>343900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>341000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>337900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>291600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>263800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>387200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3187,11 +3354,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>81600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,40 +3424,43 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E72" s="3">
         <v>16800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,40 +3612,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>343600</v>
+      </c>
+      <c r="E76" s="3">
         <v>342700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>342300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>346400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>341400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>337900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>112200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3474,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,87 +3706,93 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-4400</v>
       </c>
       <c r="E81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
-        <v>2100</v>
-      </c>
       <c r="H81" s="3">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1400</v>
+        <v>2600</v>
       </c>
       <c r="J81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K81" s="3">
         <v>6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3608,11 +3802,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,38 +3826,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="3">
         <v>5400</v>
       </c>
       <c r="F83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
       </c>
-      <c r="H83" s="3">
-        <v>4800</v>
-      </c>
       <c r="I83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J83" s="3">
         <v>4100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,38 +4106,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E89" s="3">
         <v>9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
-        <v>-2100</v>
-      </c>
       <c r="I89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J89" s="3">
         <v>3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -3934,11 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3973,7 +4193,7 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,38 +4313,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-31700</v>
-      </c>
       <c r="H94" s="3">
-        <v>-15600</v>
+        <v>-32000</v>
       </c>
       <c r="I94" s="3">
-        <v>-112800</v>
+        <v>-128100</v>
       </c>
       <c r="J94" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,82 +4567,88 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>12700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20800</v>
       </c>
-      <c r="H100" s="3">
-        <v>18200</v>
-      </c>
       <c r="I100" s="3">
+        <v>131800</v>
+      </c>
+      <c r="J100" s="3">
         <v>113600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1300</v>
-      </c>
       <c r="I102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J102" s="3">
         <v>4800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -4181,25 +4181,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-29500</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-3200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-12800</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-36700</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-32000</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-13500</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-112200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,175 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F8" s="3">
         <v>29900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>33300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>25800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>46900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>21600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F9" s="3">
         <v>11800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>13900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>13000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>19800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>9700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,44 +843,50 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F10" s="3">
         <v>18100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>19400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>20600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>27100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,37 +1023,43 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1036,55 +1076,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F15" s="3">
         <v>5500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>5400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>5400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>5200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>23000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>26400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>38900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>16700</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,91 +1278,99 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>5800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>600</v>
       </c>
       <c r="K20" s="3">
         <v>1400</v>
       </c>
       <c r="L20" s="3">
+        <v>600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F21" s="3">
         <v>9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>18200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>9300</v>
       </c>
       <c r="I21" s="3">
         <v>18200</v>
       </c>
       <c r="J21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="L21" s="3">
         <v>4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>13200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>8600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,149 +1380,173 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-5800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-600</v>
       </c>
       <c r="K32" s="3">
         <v>-1400</v>
       </c>
       <c r="L32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F41" s="3">
         <v>17000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>18800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,132 +2328,150 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F43" s="3">
         <v>26800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>26400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>25600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>25200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>18500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>19300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>14000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F44" s="3">
         <v>5900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4000</v>
       </c>
       <c r="H44" s="3">
         <v>4500</v>
       </c>
       <c r="I44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F45" s="3">
         <v>14400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,55 +2487,67 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>66800</v>
+      </c>
+      <c r="F46" s="3">
         <v>64100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>65100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>56200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>59400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>50800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>49300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>45000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2345,29 +2555,29 @@
         <v>2300</v>
       </c>
       <c r="E47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,25 +2593,31 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2409,11 +2625,11 @@
       <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>300</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2421,64 +2637,76 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>628200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>617800</v>
+      </c>
+      <c r="F49" s="3">
         <v>587800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>559000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>564400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>571800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>539200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>511100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>501000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F52" s="3">
         <v>58000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>57900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>56600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>48800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>38700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>37100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>32500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>767300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>754100</v>
+      </c>
+      <c r="F54" s="3">
         <v>720300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>686500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>683300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>684300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>633100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>601700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>581000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,38 +3010,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F57" s="3">
         <v>5900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,16 +3059,22 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2817,73 +3085,79 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>81600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>47900</v>
+      </c>
+      <c r="F59" s="3">
         <v>41200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>34900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>30900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>36600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>36800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>28600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>31000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -2891,85 +3165,97 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>54500</v>
+      </c>
+      <c r="F60" s="3">
         <v>47100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>39000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>36200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>41100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>41900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>33900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>116900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>325800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>311500</v>
+      </c>
+      <c r="F61" s="3">
         <v>292200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>278000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>277400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>269900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>225300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>203900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>244400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,38 +3271,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F62" s="3">
         <v>36200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>26000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>26400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>25900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>23300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>25000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>24900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>416800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>405700</v>
+      </c>
+      <c r="F66" s="3">
         <v>376700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>343900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>341000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>337900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>291600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>263800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>387200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,14 +3693,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>81600</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,46 +3769,52 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F72" s="3">
         <v>12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>16800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3474,8 +3822,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,46 +3981,52 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>350500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>348400</v>
+      </c>
+      <c r="F76" s="3">
         <v>343600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>342700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>342300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>346400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>341400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>337900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>112200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,44 +4223,46 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F83" s="3">
         <v>5500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3200</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F89" s="3">
         <v>14600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,38 +4615,40 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-29500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-36700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-112200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,44 +4770,50 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-36700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-128100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-112700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-12800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,91 +5056,103 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F100" s="3">
         <v>12700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>44000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>20800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>131800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>113600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>9000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>10000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3900</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RSVR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>RSVR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E8" s="3">
         <v>31800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -796,47 +800,50 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="3">
         <v>13500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,47 +856,50 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E10" s="3">
         <v>18300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,40 +1046,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1082,52 +1102,55 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5400</v>
       </c>
       <c r="H15" s="3">
         <v>5400</v>
       </c>
       <c r="I15" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J15" s="3">
         <v>5200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,47 +1179,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E17" s="3">
         <v>28700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>26200</v>
       </c>
       <c r="F17" s="3">
         <v>26200</v>
       </c>
       <c r="G17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16700</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1203,64 +1230,70 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,100 +1313,104 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E21" s="3">
         <v>11000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,52 +1423,55 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2300</v>
       </c>
       <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>2300</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,47 +1479,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1489,55 +1532,58 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,47 +1647,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>7700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1701,11 +1756,14 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,100 +1983,106 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2019,11 +2092,14 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,47 +2151,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2125,69 +2204,75 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,50 +2314,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E41" s="3">
         <v>12300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,41 +2424,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E43" s="3">
         <v>32000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,8 +2471,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2387,41 +2480,44 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E44" s="3">
         <v>5100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,8 +2527,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2440,41 +2536,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,50 +2592,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E46" s="3">
         <v>61300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>66800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>65100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>56200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2561,26 +2666,26 @@
         <v>2300</v>
       </c>
       <c r="G47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4000</v>
       </c>
       <c r="K47" s="3">
         <v>4000</v>
       </c>
       <c r="L47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2599,28 +2704,31 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
         <v>7700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2631,8 +2739,8 @@
       <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>300</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2643,8 +2751,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2652,41 +2760,44 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>635600</v>
+      </c>
+      <c r="E49" s="3">
         <v>628200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>617800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>587800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>559000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>564400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>571800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>539200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>511100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>501000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,8 +2807,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,50 +2928,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E52" s="3">
         <v>67700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>48800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>32500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,50 +3040,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>781500</v>
+      </c>
+      <c r="E54" s="3">
         <v>767300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>754100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>720300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>686500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>683300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>684300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>633100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>601700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>581000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,41 +3142,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,24 +3225,24 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
         <v>81600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,49 +3252,52 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E59" s="3">
         <v>46700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>41200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3171,50 +3308,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E60" s="3">
         <v>51500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>54500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>41100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>41900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>116900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,41 +3364,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>332100</v>
+      </c>
+      <c r="E61" s="3">
         <v>325800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>311500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>292200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>278000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>277400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>269900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>225300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>203900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>244400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3277,41 +3420,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E62" s="3">
         <v>38300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>26400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,50 +3644,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>431700</v>
+      </c>
+      <c r="E66" s="3">
         <v>416800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>405700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>376700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>343900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>341000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>337900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>291600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>263800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>387200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,11 +3867,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>81600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,49 +3946,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E72" s="3">
         <v>15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,49 +4170,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>349800</v>
+      </c>
+      <c r="E76" s="3">
         <v>350500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>348400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>343600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>342700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>342300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>346400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>341400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>337900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>112200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,105 +4282,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4201,11 +4396,14 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,47 +4423,48 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5400</v>
       </c>
       <c r="H83" s="3">
         <v>5400</v>
       </c>
       <c r="I83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3200</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,47 +4757,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>14600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4593,11 +4810,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,41 +4837,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,47 +5003,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-128100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-112700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,100 +5305,106 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>13300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>131800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>113600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3900</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
